--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -139,6 +140,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFCC30B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,6 +154,315 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population with primary reliance on clean fuels and technology</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$A$1:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FCC30B"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$A$1:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$1:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45750272"/>
+        <c:axId val="138303104"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="45750272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138303104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138303104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45750272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,10 +729,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +740,7 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -437,9 +752,8 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -451,9 +765,8 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2010</v>
       </c>
@@ -465,9 +778,8 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2011</v>
       </c>
@@ -479,9 +791,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2012</v>
       </c>
@@ -493,9 +804,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2013</v>
       </c>
@@ -507,9 +817,8 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2014</v>
       </c>
@@ -521,9 +830,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2015</v>
       </c>
@@ -535,9 +843,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2016</v>
       </c>
@@ -549,9 +856,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -559,7 +865,330 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -567,5 +1196,98 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B1" s="2">
+        <v>95</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="2">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="2">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="2">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="2">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>&gt; 95</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Population with primary reliance on clean fuels and technology</t>
+  </si>
+  <si>
+    <t>Datasource:</t>
+  </si>
+  <si>
+    <t>World Health Organization (WHO)</t>
   </si>
 </sst>
 </file>
@@ -339,11 +345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45750272"/>
-        <c:axId val="138303104"/>
+        <c:axId val="74814976"/>
+        <c:axId val="41791424"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="45750272"/>
+        <c:axId val="74814976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138303104"/>
+        <c:crossAx val="41791424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -381,7 +387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138303104"/>
+        <c:axId val="41791424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -413,7 +419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45750272"/>
+        <c:crossAx val="74814976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -720,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,7 +738,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,8 +1053,12 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>

--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr codeName="DieseArbeitsmappe"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20955" windowHeight="9645"/>
+    <workbookView xWindow="-75" yWindow="75" windowWidth="11580" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>&gt; 95</t>
+  </si>
+  <si>
+    <t>7.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright: </t>
+  </si>
+  <si>
+    <t>©       Statistisches Bundesamt (Destatis) 2020</t>
+  </si>
+  <si>
+    <t>Population with primary reliance on clean fuels and technology</t>
   </si>
   <si>
     <t>Year</t>
@@ -31,23 +39,20 @@
     <t>Value in percent</t>
   </si>
   <si>
-    <t>7.1.2</t>
-  </si>
-  <si>
-    <t>Population with primary reliance on clean fuels and technology</t>
-  </si>
-  <si>
     <t>Datasource:</t>
   </si>
   <si>
     <t>World Health Organization (WHO)</t>
+  </si>
+  <si>
+    <t>Reproduction and distribution, also of parts, are permitted provided that the source is mentioned.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +67,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,7 +119,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -110,35 +130,38 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,9 +177,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -186,9 +206,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Population with primary reliance on clean fuels and technology</a:t>
             </a:r>
+            <a:endParaRPr lang="de-DE" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -345,11 +370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74814976"/>
-        <c:axId val="41791424"/>
+        <c:axId val="157849088"/>
+        <c:axId val="41069952"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="74814976"/>
+        <c:axId val="157849088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41791424"/>
+        <c:crossAx val="41069952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -387,7 +412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41791424"/>
+        <c:axId val="41069952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -419,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74814976"/>
+        <c:crossAx val="157849088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -441,19 +466,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -468,13 +493,101 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>365045</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1245"/>
+          <a:ext cx="1973179" cy="715637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149088</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291945</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1018762" y="7810499"/>
+          <a:ext cx="142857" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -482,44 +595,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -549,12 +662,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -584,7 +697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,204 +706,222 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -799,10 +930,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
@@ -812,10 +943,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
@@ -825,10 +956,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
@@ -838,10 +969,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
@@ -851,10 +982,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1"/>
@@ -864,8 +995,12 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -873,8 +1008,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1053,12 +1192,8 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1074,7 +1209,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1083,7 +1218,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1092,34 +1227,45 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1128,7 +1274,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1137,7 +1283,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1146,7 +1292,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1155,57 +1301,13 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1215,16 +1317,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+      <c r="A1" s="4">
         <v>2010</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1">
         <v>95</v>
       </c>
       <c r="C1">
@@ -1232,10 +1334,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>2011</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>95</v>
       </c>
       <c r="C2">
@@ -1243,10 +1345,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2012</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>95</v>
       </c>
       <c r="C3">
@@ -1254,10 +1356,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2013</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>95</v>
       </c>
       <c r="C4">
@@ -1265,10 +1367,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2014</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>95</v>
       </c>
       <c r="C5">
@@ -1276,10 +1378,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>2015</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>95</v>
       </c>
       <c r="C6">
@@ -1287,10 +1389,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2016</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>95</v>
       </c>
       <c r="C7">
@@ -1300,4 +1402,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>&gt; 95</t>
   </si>
@@ -42,10 +42,10 @@
     <t>Datasource:</t>
   </si>
   <si>
-    <t>World Health Organization (WHO)</t>
+    <t>Reproduction and distribution, also of parts, are permitted provided that the source is mentioned.</t>
   </si>
   <si>
-    <t>Reproduction and distribution, also of parts, are permitted provided that the source is mentioned.</t>
+    <t>World Health Organization (WHO), updated 11.04.2019</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,10 +237,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$7</c:f>
+              <c:f>Tabelle2!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -258,16 +261,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$B$1:$B$7</c:f>
+              <c:f>Tabelle2!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>95</c:v>
                 </c:pt>
@@ -287,6 +293,9 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
@@ -303,10 +312,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$7</c:f>
+              <c:f>Tabelle2!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -327,16 +336,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$C$1:$C$7</c:f>
+              <c:f>Tabelle2!$C$1:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -356,6 +368,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -370,11 +385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157849088"/>
-        <c:axId val="41069952"/>
+        <c:axId val="178499072"/>
+        <c:axId val="41594240"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="157849088"/>
+        <c:axId val="178499072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41069952"/>
+        <c:crossAx val="41594240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -412,7 +427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41069952"/>
+        <c:axId val="41594240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -444,7 +459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157849088"/>
+        <c:crossAx val="178499072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -467,13 +482,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -873,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,8 +1036,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1030,8 +1049,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1232,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
@@ -1256,7 +1275,7 @@
     <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1314,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,6 +1415,17 @@
         <v>95</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>95</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
     </row>

--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\SDG\SdgTestEnvironment\sdg-indicators\public\AddInfos\en\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0857EF5-C5ED-4055-B045-4A1B138F1E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="75" windowWidth="11580" windowHeight="13290"/>
+    <workbookView xWindow="-72" yWindow="72" windowWidth="11580" windowHeight="13296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>&gt; 95</t>
   </si>
@@ -25,9 +31,6 @@
   </si>
   <si>
     <t xml:space="preserve">Copyright: </t>
-  </si>
-  <si>
-    <t>©       Statistisches Bundesamt (Destatis) 2020</t>
   </si>
   <si>
     <t>Population with primary reliance on clean fuels and technology</t>
@@ -45,13 +48,16 @@
     <t>Reproduction and distribution, also of parts, are permitted provided that the source is mentioned.</t>
   </si>
   <si>
-    <t>World Health Organization (WHO), updated 11.04.2019</t>
+    <t>World Health Organization (WHO)</t>
+  </si>
+  <si>
+    <t>©       Statistisches Bundesamt (Destatis) 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -163,9 +169,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -181,12 +184,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -220,7 +226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -237,10 +242,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$8</c:f>
+              <c:f>Tabelle2!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -264,16 +269,25 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$B$1:$B$8</c:f>
+              <c:f>Tabelle2!$B$1:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>95</c:v>
                 </c:pt>
@@ -296,11 +310,25 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E445-4FC1-8C3E-FFB64BC423ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -312,10 +340,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$8</c:f>
+              <c:f>Tabelle2!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -339,16 +367,25 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$C$1:$C$8</c:f>
+              <c:f>Tabelle2!$C$1:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -371,11 +408,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E445-4FC1-8C3E-FFB64BC423ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -396,25 +447,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -447,12 +479,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percent (%)</a:t>
+                  <a:t>Percent</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -482,18 +513,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -523,7 +560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -556,18 +599,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>149088</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>291945</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>184269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6"/>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -600,9 +649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -640,9 +689,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,9 +724,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,9 +776,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,22 +968,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -909,7 +992,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -918,12 +1001,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -931,12 +1014,12 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -944,7 +1027,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -957,7 +1040,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -970,7 +1053,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -983,7 +1066,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -996,7 +1079,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -1009,7 +1092,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -1022,7 +1105,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -1035,7 +1118,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -1048,34 +1131,46 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1084,7 +1179,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1093,7 +1188,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1102,7 +1197,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1111,7 +1206,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1120,7 +1215,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1129,7 +1224,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1138,7 +1233,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1147,7 +1242,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1156,7 +1251,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1165,7 +1260,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1174,7 +1269,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1183,7 +1278,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1192,7 +1287,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1201,7 +1296,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1210,7 +1305,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1219,7 +1314,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1228,7 +1323,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1237,7 +1332,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1246,25 +1341,21 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
@@ -1272,28 +1363,32 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1302,7 +1397,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1311,7 +1406,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1320,28 +1415,37 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="A6" sqref="A6:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>2010</v>
       </c>
@@ -1352,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2011</v>
       </c>
@@ -1363,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2012</v>
       </c>
@@ -1374,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2013</v>
       </c>
@@ -1385,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2014</v>
       </c>
@@ -1396,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -1407,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2016</v>
       </c>
@@ -1418,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2017</v>
       </c>
@@ -1426,6 +1530,39 @@
         <v>95</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
     </row>
@@ -1435,12 +1572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\SDG\SdgTestEnvironment\sdg-indicators\public\AddInfos\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0857EF5-C5ED-4055-B045-4A1B138F1E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CECDCC-F3FA-4619-8F97-21FEE7FA70DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-72" yWindow="72" windowWidth="11580" windowHeight="13296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>&gt; 95</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Value in percent</t>
-  </si>
-  <si>
     <t>Datasource:</t>
   </si>
   <si>
@@ -52,6 +49,15 @@
   </si>
   <si>
     <t>©       Statistisches Bundesamt (Destatis) 2021</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Comment:</t>
+  </si>
+  <si>
+    <t>Estimated data.</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>365045</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>79513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -599,13 +605,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>149088</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>291945</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>184269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -969,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,7 +989,7 @@
     <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -992,7 +998,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1014,12 +1020,12 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1352,10 +1358,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
@@ -1365,10 +1371,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
@@ -1376,26 +1382,30 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -1424,10 +1434,19 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
